--- a/xlsx/企业流程再造_intext.xlsx
+++ b/xlsx/企业流程再造_intext.xlsx
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E6%88%B6%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>客戶服務</t>
+    <t>客户服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E8%80%85</t>
   </si>
   <si>
-    <t>競爭者</t>
+    <t>竞争者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83500%E5%BC%BA%E4%BC%81%E4%B8%9A</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%95%86%E6%A5%AD%E8%A9%95%E8%AB%96</t>
   </si>
   <si>
-    <t>哈佛商業評論</t>
+    <t>哈佛商业评论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD%E6%B5%81%E7%A8%8B%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>企業流程管理</t>
+    <t>企业流程管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E7%A7%91%E6%8A%80</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E7%8B%80</t>
   </si>
   <si>
-    <t>現狀</t>
+    <t>现状</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E5%96%84%E6%B3%95</t>
